--- a/stats.xlsx
+++ b/stats.xlsx
@@ -24,19 +24,28 @@
     <t>size</t>
   </si>
   <si>
-    <t>count of collisions</t>
+    <t>experiments with collisions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -60,10 +69,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -160,31 +172,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -368,7 +380,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>count of collisions</a:t>
+                  <a:t>experiments with collisions</a:t>
                 </a:r>
                 <a:endParaRPr lang="ru-RU"/>
               </a:p>
@@ -1051,15 +1063,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1344,19 +1356,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1365,79 +1377,88 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>25</v>
       </c>
-      <c r="B2">
-        <v>7</v>
+      <c r="B2" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>75</v>
       </c>
-      <c r="B3">
-        <v>3</v>
+      <c r="B3" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>125</v>
       </c>
-      <c r="B4">
-        <v>2</v>
+      <c r="B4" s="2">
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>175</v>
       </c>
-      <c r="B5">
-        <v>1</v>
+      <c r="B5" s="2">
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>225</v>
       </c>
-      <c r="B6">
-        <v>1</v>
+      <c r="B6" s="2">
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>275</v>
       </c>
-      <c r="B7">
-        <v>1</v>
+      <c r="B7" s="2">
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>325</v>
       </c>
-      <c r="B8">
-        <v>1</v>
+      <c r="B8" s="2">
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>375</v>
       </c>
-      <c r="B9">
-        <v>0</v>
+      <c r="B9" s="2">
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>425</v>
       </c>
-      <c r="B10">
-        <v>0</v>
+      <c r="B10" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>475</v>
+      </c>
+      <c r="B11" s="2">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/stats.xlsx
+++ b/stats.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CE8529-B51D-4F1C-A97E-1B22C618DDE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -131,10 +132,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$10</c:f>
+              <c:f>Лист1!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>25</c:v>
                 </c:pt>
@@ -161,42 +162,48 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$B$2:$B$10</c:f>
+              <c:f>Лист1!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>94</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>87</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>81</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>70</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>65</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>60</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>53</c:v>
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -267,7 +274,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -386,7 +392,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1075,7 +1080,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1355,20 +1366,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.453125" customWidth="1"/>
+    <col min="2" max="2" width="26.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1376,7 +1387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>25</v>
       </c>
@@ -1384,76 +1395,76 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>75</v>
       </c>
       <c r="B3" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>125</v>
       </c>
       <c r="B4" s="2">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>175</v>
       </c>
       <c r="B5" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>225</v>
       </c>
       <c r="B6" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>275</v>
       </c>
       <c r="B7" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>325</v>
       </c>
       <c r="B8" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>375</v>
       </c>
       <c r="B9" s="2">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>425</v>
       </c>
       <c r="B10" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>475</v>
       </c>
       <c r="B11" s="2">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
